--- a/架构师招聘技能统计.xlsx
+++ b/架构师招聘技能统计.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\architect-interview\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\architect-interview\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B23110F-337E-4E8D-BAD4-B9DBECC55FB8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB302BD-78BE-4189-8D1E-070A68A0B881}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="2250" windowWidth="18000" windowHeight="10410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,19 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="50">
   <si>
     <t>Java</t>
   </si>
   <si>
-    <t>并发编程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内存模型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DB</t>
   </si>
   <si>
@@ -49,10 +41,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>公司\技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ORM</t>
   </si>
   <si>
@@ -67,34 +55,6 @@
     <t>分布式架构</t>
   </si>
   <si>
-    <t>分布式协调服务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>分布式通讯</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分布式网络通讯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分布式缓存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ZooKeeper</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -131,6 +91,134 @@
   </si>
   <si>
     <t>UDP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江菜鸟供应链管理有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资深Java开发工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岗位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>协调服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通讯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络通讯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缓存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿里巴巴集团</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国际化中台技术-Java开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JVM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万威国际科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>java架构师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring-Core</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring-Cloud</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NIO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多线程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Netty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盒子科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台架构师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺丰科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JAVA后端开发工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宁波大师兄网络科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java架构师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpringMVC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商局金融科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java资深开发工程师</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -138,7 +226,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,16 +254,70 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF333333"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -183,11 +325,63 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -204,10 +398,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -490,124 +738,457 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:X11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:N3"/>
+      <selection activeCell="M11" sqref="M11:N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.625" style="7" customWidth="1"/>
-    <col min="2" max="4" width="9" style="7"/>
-    <col min="5" max="5" width="10.75" style="7" customWidth="1"/>
-    <col min="6" max="6" width="11.625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="15.875" style="7" customWidth="1"/>
-    <col min="8" max="8" width="14.125" style="7" customWidth="1"/>
-    <col min="9" max="9" width="16.625" style="7" customWidth="1"/>
-    <col min="10" max="10" width="9" style="7"/>
-    <col min="11" max="11" width="16.625" style="7" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="24.375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="22.125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="9" style="5"/>
+    <col min="4" max="5" width="8.5" style="5" customWidth="1"/>
+    <col min="6" max="7" width="9" style="5"/>
+    <col min="8" max="8" width="10.125" style="5" customWidth="1"/>
+    <col min="9" max="10" width="9" style="5"/>
+    <col min="11" max="11" width="10.75" style="5" customWidth="1"/>
+    <col min="12" max="12" width="11.625" style="5" customWidth="1"/>
+    <col min="13" max="15" width="15" style="5" customWidth="1"/>
+    <col min="16" max="16" width="15.875" style="5" customWidth="1"/>
+    <col min="17" max="17" width="14.125" style="5" customWidth="1"/>
+    <col min="18" max="18" width="16.625" style="5" customWidth="1"/>
+    <col min="19" max="19" width="9" style="5"/>
+    <col min="20" max="21" width="16.625" style="5" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="10"/>
+      <c r="K1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="12"/>
+      <c r="M1" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" s="25"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+    </row>
+    <row r="2" spans="1:24" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="M2" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="S2" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="T2" s="20"/>
+      <c r="U2" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="V2" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="W2" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="X2" s="21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="P3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="R3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4" t="s">
+      <c r="S3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U3" s="4"/>
+      <c r="W3" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
+      <c r="B4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="W4" s="4"/>
     </row>
-    <row r="2" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5"/>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>24</v>
-      </c>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="T5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="U5" s="8"/>
     </row>
-    <row r="3" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>23</v>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="S6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="T6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="U6" s="8"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="U7" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N8" s="8"/>
+      <c r="R8" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q9" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="R9" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="S9" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="N10" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="O10" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="N11" s="24" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="L1:N1"/>
+  <mergeCells count="7">
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="A1:B3"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:U1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/架构师招聘技能统计.xlsx
+++ b/架构师招聘技能统计.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\architect-interview\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB302BD-78BE-4189-8D1E-070A68A0B881}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -52,181 +51,182 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ZooKeeper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kafka</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dubbo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Redis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Memcache</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络协议</t>
+  </si>
+  <si>
+    <t>HTTP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCP/IP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Socket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UDP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江菜鸟供应链管理有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资深Java开发工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岗位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>协调服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通讯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络通讯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缓存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿里巴巴集团</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国际化中台技术-Java开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JVM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万威国际科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>java架构师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring-Core</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring-Cloud</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NIO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多线程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Netty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盒子科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台架构师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺丰科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JAVA后端开发工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宁波大师兄网络科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java架构师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpringMVC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商局金融科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java资深开发工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>分布式架构</t>
-  </si>
-  <si>
-    <t>ZooKeeper</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kafka</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dubbo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Redis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Memcache</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网络协议</t>
-  </si>
-  <si>
-    <t>HTTP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TCP/IP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Socket</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UDP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浙江菜鸟供应链管理有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资深Java开发工程师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>岗位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>√</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>协调服务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通讯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网络通讯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>缓存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设计模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿里巴巴集团</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>国际化中台技术-Java开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>集合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spring</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JVM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>万威国际科技有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>java架构师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spring-Core</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spring-Cloud</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NIO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多线程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Netty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>盒子科技</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平台架构师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>顺丰科技有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JAVA后端开发工程师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宁波大师兄网络科技有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Java架构师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpringMVC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招商局金融科技有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Java资深开发工程师</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,8 +296,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -313,6 +320,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,7 +394,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -399,29 +412,47 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -434,28 +465,16 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -737,17 +756,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11:N11"/>
+      <selection activeCell="K1" sqref="K1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="22.125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="24.375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="22.125" style="6" customWidth="1"/>
     <col min="3" max="3" width="9" style="5"/>
     <col min="4" max="5" width="8.5" style="5" customWidth="1"/>
     <col min="6" max="7" width="9" style="5"/>
@@ -765,114 +784,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="9" t="s">
+      <c r="A1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="10" t="s">
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="10"/>
-      <c r="K1" s="11" t="s">
+      <c r="J1" s="17"/>
+      <c r="K1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="12"/>
-      <c r="M1" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="N1" s="25"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="19"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
     </row>
     <row r="2" spans="1:24" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="18" t="s">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="S2" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T2" s="14"/>
+      <c r="U2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="M2" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="O2" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="P2" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q2" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="R2" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="S2" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="T2" s="20"/>
-      <c r="U2" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="V2" s="19" t="s">
+      <c r="V2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="W2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="W2" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="X2" s="21" t="s">
-        <v>17</v>
+      <c r="X2" s="10" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -880,308 +899,310 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="P3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="T3" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="U3" s="4"/>
       <c r="W3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="25"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
       <c r="U4" s="4"/>
       <c r="W4" s="4"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="S5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="T5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="U5" s="8"/>
+      <c r="H5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="U5" s="7"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="S6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="T6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="U6" s="8"/>
+      <c r="C6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="S6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="T6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="U6" s="7"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="O7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="P7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="R7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="U7" s="8" t="s">
-        <v>22</v>
+      <c r="C7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="R7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="U7" s="7" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="C8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" s="7"/>
+      <c r="R8" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="N8" s="8"/>
-      <c r="R8" s="8" t="s">
-        <v>22</v>
+      <c r="B9" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q9" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="R9" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="S9" s="13" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:24" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="22" t="s">
+    <row r="10" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q9" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="R9" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="S9" s="24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="22" t="s">
+      <c r="B10" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="M10" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="N10" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="O10" s="24" t="s">
-        <v>22</v>
+      <c r="C10" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="N10" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="O10" s="13" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M11" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="N11" s="24" t="s">
-        <v>22</v>
+      <c r="C11" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="N11" s="13" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="V1:X1"/>
     <mergeCell ref="A1:B3"/>
@@ -1189,6 +1210,7 @@
     <mergeCell ref="C1:H1"/>
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="P1:U1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/架构师招聘技能统计.xlsx
+++ b/架构师招聘技能统计.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\architect-interview\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\architect-interview\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D02F2977-8E65-4FDD-982E-6332A69F9168}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="0" yWindow="1275" windowWidth="18000" windowHeight="9435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -225,7 +226,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -435,6 +436,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -456,26 +466,17 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -756,11 +757,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:L1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -784,46 +785,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="16"/>
-      <c r="B1" s="16"/>
-      <c r="C1" s="15" t="s">
+      <c r="A1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="17" t="s">
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="17"/>
-      <c r="K1" s="21" t="s">
+      <c r="J1" s="20"/>
+      <c r="K1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="23"/>
-      <c r="M1" s="18" t="s">
+      <c r="L1" s="26"/>
+      <c r="M1" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="19"/>
-      <c r="O1" s="20"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="23"/>
       <c r="P1" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="15" t="s">
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
     </row>
     <row r="2" spans="1:24" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
       <c r="C2" s="8" t="s">
         <v>38</v>
       </c>
@@ -872,10 +873,10 @@
       <c r="R2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="S2" s="14" t="s">
+      <c r="S2" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="T2" s="14"/>
+      <c r="T2" s="17"/>
       <c r="U2" s="8" t="s">
         <v>39</v>
       </c>
@@ -890,8 +891,8 @@
       </c>
     </row>
     <row r="3" spans="1:24" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -925,17 +926,20 @@
       <c r="B4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="25"/>
+      <c r="C4" s="14"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
       <c r="U4" s="4"/>

--- a/架构师招聘技能统计.xlsx
+++ b/架构师招聘技能统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\architect-interview\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D02F2977-8E65-4FDD-982E-6332A69F9168}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D933FD-1278-41A3-A8CC-C1983A7109C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1275" windowWidth="18000" windowHeight="9435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1065" yWindow="1305" windowWidth="18000" windowHeight="9435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -760,8 +760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -940,9 +940,9 @@
       <c r="P4" s="15"/>
       <c r="Q4" s="15"/>
       <c r="R4" s="15"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
       <c r="W4" s="4"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">

--- a/架构师招聘技能统计.xlsx
+++ b/架构师招聘技能统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\architect-interview\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D933FD-1278-41A3-A8CC-C1983A7109C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A07C8E-72DD-4F1C-A013-8EA8B2C1FF35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1065" yWindow="1305" windowWidth="18000" windowHeight="9435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -761,7 +761,7 @@
   <dimension ref="A1:X11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V4" sqref="V4"/>
+      <selection activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -943,7 +943,7 @@
       <c r="S4" s="15"/>
       <c r="T4" s="15"/>
       <c r="U4" s="15"/>
-      <c r="W4" s="4"/>
+      <c r="W4" s="15"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
